--- a/biology/Biochimie/Pont_cystine/Pont_cystine.xlsx
+++ b/biology/Biochimie/Pont_cystine/Pont_cystine.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F2"/>
+  <dimension ref="A1:H2"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,10 +490,12 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">Un pont cystine est un pont disulfure entre deux résidus de cystéine, un acide aminé protéinogène.
-Le pont est établi par oxydation d'un groupement thiol (sulfhydrile) de chacun des deux résidus de cystéine. Ce type de pont est essentiel dans l'assemblage des chaines polypeptidiques pour établir une conformation tertiaire de la protéine[1].
+Le pont est établi par oxydation d'un groupement thiol (sulfhydrile) de chacun des deux résidus de cystéine. Ce type de pont est essentiel dans l'assemblage des chaines polypeptidiques pour établir une conformation tertiaire de la protéine.
 </t>
         </is>
       </c>
